--- a/medicine/Enfance/Esther_Hautzig/Esther_Hautzig.xlsx
+++ b/medicine/Enfance/Esther_Hautzig/Esther_Hautzig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Esther Hautzig (née Rudomin, le 18 octobre 1930 à Wilno, en Pologne - morte le 1er novembre 2009 au New York Presbyterian Hospital[1] ) est une romancière et nouvelliste juive américaine. 
-Issue d’une famille juive de Vilnius qui relevait alors de la juridiction polonaise, elle est arrêtée avec ses parents et sa grand-mère en 1940 par les troupes soviétiques pour être déportée pendant cinq ans en Sibérie, ce qui lui permet paradoxalement d’échapper à l’extermination systématique des Juifs qui emporte le reste de sa famille. La famille émigre en 1947 aux États-Unis où elle se marie avec le pianiste Walter Hautzig, rencontré lors de la traversée, et fait souche[2]. 
-Elle a écrit plusieurs livres, dont la majorité traite plus ou moins directement de sa propre enfance. Elle a aussi fait de la traduction, du yiddish vers l'anglais[3]. Son livre le plus célèbre, The Endless Steppe: Growing Up in Siberia[4], traduit en français sous le titre de La Steppe infinie, a été finaliste au National Book Award et a remporté des prix littéraires américains. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Esther Hautzig (née Rudomin, le 18 octobre 1930 à Wilno, en Pologne - morte le 1er novembre 2009 au New York Presbyterian Hospital ) est une romancière et nouvelliste juive américaine. 
+Issue d’une famille juive de Vilnius qui relevait alors de la juridiction polonaise, elle est arrêtée avec ses parents et sa grand-mère en 1940 par les troupes soviétiques pour être déportée pendant cinq ans en Sibérie, ce qui lui permet paradoxalement d’échapper à l’extermination systématique des Juifs qui emporte le reste de sa famille. La famille émigre en 1947 aux États-Unis où elle se marie avec le pianiste Walter Hautzig, rencontré lors de la traversée, et fait souche. 
+Elle a écrit plusieurs livres, dont la majorité traite plus ou moins directement de sa propre enfance. Elle a aussi fait de la traduction, du yiddish vers l'anglais. Son livre le plus célèbre, The Endless Steppe: Growing Up in Siberia, traduit en français sous le titre de La Steppe infinie, a été finaliste au National Book Award et a remporté des prix littéraires américains. 
 Ses deux enfants, David et Deborah, écrivent aussi des livres pour enfants.
-Les manuscrits d'Esther Hautzig sont déposés à la bibliothèque de l'Université du Mississippi[5].
+Les manuscrits d'Esther Hautzig sont déposés à la bibliothèque de l'Université du Mississippi.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>A Picture of Grandmother, éd. Farrar Straus Giroux, 2002,
 Remember Who You Are: Stories about Being Jewish, éd. The Jewish Publication Society, 1999,
